--- a/hw2/Statistics.xlsx
+++ b/hw2/Statistics.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,14 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="3" activeTab="4" xr2:uid="{8BFDF29F-6A5A-4763-8C55-F71C73A6EDA3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="3" activeTab="8" xr2:uid="{8BFDF29F-6A5A-4763-8C55-F71C73A6EDA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem1_parta" sheetId="4" r:id="rId1"/>
     <sheet name="Problem1_partb" sheetId="5" r:id="rId2"/>
     <sheet name="Problem2" sheetId="6" r:id="rId3"/>
     <sheet name="ExecutionTimes" sheetId="1" r:id="rId4"/>
-    <sheet name="PAPI" sheetId="7" r:id="rId5"/>
+    <sheet name="PAPI_TOT_INSTRUCTIONS" sheetId="8" r:id="rId5"/>
+    <sheet name="PAPI_TOTAL_CLK_CYCLES" sheetId="9" r:id="rId6"/>
+    <sheet name="PAPI_L1_MISSES" sheetId="10" r:id="rId7"/>
+    <sheet name="PAPI_L2_MISSES" sheetId="11" r:id="rId8"/>
+    <sheet name="PAPI" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Matrix Size</t>
   </si>
@@ -75,18 +79,6 @@
     <t>g++ L2 Misses</t>
   </si>
   <si>
-    <t>icc Total Instructions</t>
-  </si>
-  <si>
-    <t>icc Total Clock Cycles</t>
-  </si>
-  <si>
-    <t>icc L1 Cache Misses</t>
-  </si>
-  <si>
-    <t>icc L2 Misses</t>
-  </si>
-  <si>
     <t>g++ omp Total Instructions</t>
   </si>
   <si>
@@ -99,16 +91,28 @@
     <t>g++ omp L2 Misses</t>
   </si>
   <si>
-    <t>icc omp Total Instructions</t>
+    <t>icpc Total Instructions</t>
   </si>
   <si>
-    <t>icc ompTotal Clock Cycles</t>
+    <t>icpc Total Clock Cycles</t>
   </si>
   <si>
-    <t>icc omp L1 Cache Misses</t>
+    <t>icpc L1 Cache Misses</t>
   </si>
   <si>
-    <t>icc omp L2 Misses</t>
+    <t>icpc L2 Misses</t>
+  </si>
+  <si>
+    <t>icpc omp Total Instructions</t>
+  </si>
+  <si>
+    <t>icpc ompTotal Clock Cycles</t>
+  </si>
+  <si>
+    <t>icpc omp L1 Cache Misses</t>
+  </si>
+  <si>
+    <t>icpc omp L2 Misses</t>
   </si>
 </sst>
 </file>
@@ -165,11 +169,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2152,6 +2157,3110 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Serial and OpenMP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> g++ and icpc Total Number of Instructions vs. Matrix Size N</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9502179767930323E-2"/>
+          <c:y val="7.4818692418889887E-2"/>
+          <c:w val="0.87788618487978609"/>
+          <c:h val="0.83561006532457471"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PAPI!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g++ Total Instructions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PAPI!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PAPI!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>941889827</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7525642911</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25388413065</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60167454370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-84AB-44CC-A37B-D3D40A08CB37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PAPI!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>icpc Total Instructions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PAPI!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PAPI!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>206269731</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1630296363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5480040865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12963463450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-84AB-44CC-A37B-D3D40A08CB37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PAPI!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g++ omp Total Instructions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PAPI!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PAPI!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>81036686</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>593699039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1937587494</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4513004564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-84AB-44CC-A37B-D3D40A08CB37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PAPI!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>icpc omp Total Instructions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PAPI!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PAPI!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>450205005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>266822077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1077253236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3035769914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-84AB-44CC-A37B-D3D40A08CB37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="580151392"/>
+        <c:axId val="580145816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="580151392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size N</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580145816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="580145816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Number of Instructions</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580151392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41870695273966113"/>
+          <c:y val="0.37754417910499916"/>
+          <c:w val="0.18886448797100849"/>
+          <c:h val="0.1361633077834675"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Serial</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and OpenMP g++ and icpc Total Number of Clock Cycles vs. Matrix Size N</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9502179767930323E-2"/>
+          <c:y val="7.4818692418889887E-2"/>
+          <c:w val="0.87819368487027405"/>
+          <c:h val="0.83561006532457471"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PAPI!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g++ Total Clock Cycles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PAPI!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PAPI!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>827511765</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9052470116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48124152643</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>486806715203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D09-47E8-AFD8-3CF110DAEFF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PAPI!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>icpc Total Clock Cycles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PAPI!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PAPI!$I$2:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>300440670</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2479660695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8511245480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19989495770</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0D09-47E8-AFD8-3CF110DAEFF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PAPI!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g++ omp Total Clock Cycles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PAPI!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PAPI!$J$2:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>285131510</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1110980107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3892381958</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105327967941</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0D09-47E8-AFD8-3CF110DAEFF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PAPI!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>icpc ompTotal Clock Cycles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PAPI!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PAPI!$K$2:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>595673689</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>979073123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3598842174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109850629489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0D09-47E8-AFD8-3CF110DAEFF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="592282040"/>
+        <c:axId val="592284664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="592282040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size N</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592284664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="592284664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Number of Clock Cycles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592282040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.53762159191834225"/>
+          <c:y val="9.7150589290340386E-2"/>
+          <c:w val="0.18855698798052065"/>
+          <c:h val="0.1361633077834675"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Serial</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and OpenMP g++ and icpc Total L1 Cache Misses vs. Matrix Size N</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6147894466741172E-2"/>
+          <c:y val="7.4818692418889887E-2"/>
+          <c:w val="0.89955057959770413"/>
+          <c:h val="0.83561006532457471"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PAPI!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g++ L1 Cache Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PAPI!$M$2:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PAPI!$N$2:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>135003153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1083636666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3647433847</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8691588513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-49DB-4CD9-8021-BEA940172C3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PAPI!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>icpc L1 Cache Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PAPI!$M$2:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PAPI!$O$2:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8666359</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99778901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>337573040</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>799168072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-49DB-4CD9-8021-BEA940172C3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PAPI!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g++ omp  L1 Cache Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PAPI!$M$2:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PAPI!$P$2:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9109507</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72150691</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>233587144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>614757460</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-49DB-4CD9-8021-BEA940172C3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PAPI!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>icpc omp L1 Cache Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PAPI!$M$2:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PAPI!$Q$2:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8543531</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69564609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196180169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>625807404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-49DB-4CD9-8021-BEA940172C3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="580152704"/>
+        <c:axId val="580148112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="580152704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size N</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580148112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="580148112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Number of L1 Cache Misses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580152704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.65983848352580621"/>
+          <c:y val="0.23835599423297429"/>
+          <c:w val="0.18348294989225972"/>
+          <c:h val="0.1361633077834675"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Serial</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and OpenMP g++ and icpc Total L2 Misses vs Matrix Size N</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6147894466741172E-2"/>
+          <c:y val="7.4818692418889887E-2"/>
+          <c:w val="0.89952867296171146"/>
+          <c:h val="0.83561006532457471"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PAPI!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g++ L2 Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PAPI!$S$2:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PAPI!$T$2:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>134869945</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1075662802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3635232852</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8611548215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF96-4AC9-B0DE-029CD23B0334}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PAPI!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>icpc L2 Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PAPI!$S$2:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PAPI!$U$2:$U$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>247781</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3975057</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29013466</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72037797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF96-4AC9-B0DE-029CD23B0334}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PAPI!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g++ omp L2 Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PAPI!$S$2:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PAPI!$V$2:$V$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8722714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68493551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>219651666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>548136598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AF96-4AC9-B0DE-029CD23B0334}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PAPI!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>icpc omp L2 Misses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PAPI!$S$2:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PAPI!$W$2:$W$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8486858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67376128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183303016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>554814135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AF96-4AC9-B0DE-029CD23B0334}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="586445424"/>
+        <c:axId val="586445752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="586445424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix Size N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="586445752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="586445752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Number of L2 Misses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="586445424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.57635229375738128"/>
+          <c:y val="0.46630186221179765"/>
+          <c:w val="0.1468977148035015"/>
+          <c:h val="0.1361633077834675"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2272,6 +5381,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3305,6 +6574,2070 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3847,6 +9180,50 @@
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="71" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{75666236-88A6-471C-81CC-0DA627AC1E9B}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{861387B2-7501-4881-9930-3138B1C0BF56}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4E7E0224-1DC3-452B-A095-BF0CD9CCD78D}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{859B53B0-ACC4-4F04-8B43-6D9F6003B69D}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3930,6 +9307,138 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB44F53-0870-4B76-95ED-41302B7B6F88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFCAF4BE-33D6-405A-A422-434BA77E455F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A9284F-5549-4976-8B2D-E3006B782335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14104CF2-C72D-4761-91E3-DDA7BF37F8F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BC4956-53D3-46C1-8B35-B463FBE12CDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4680,296 +10189,350 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0375ACF5-E771-4A39-BF50-5F28AE2F50AE}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.5703125" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="4"/>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>512</v>
       </c>
-      <c r="B2">
-        <v>1560</v>
-      </c>
-      <c r="C2">
-        <v>4089</v>
-      </c>
-      <c r="D2">
-        <v>49</v>
-      </c>
-      <c r="E2">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>260</v>
-      </c>
-      <c r="G2">
-        <v>1306</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2">
-        <v>1572</v>
-      </c>
-      <c r="K2">
-        <v>5150</v>
-      </c>
-      <c r="L2">
-        <v>24</v>
-      </c>
-      <c r="M2">
-        <v>24</v>
-      </c>
-      <c r="N2">
-        <v>260</v>
-      </c>
-      <c r="O2">
-        <v>2413</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>10</v>
+      <c r="B2" s="2">
+        <v>941889827</v>
+      </c>
+      <c r="C2" s="2">
+        <v>206269731</v>
+      </c>
+      <c r="D2" s="2">
+        <v>81036686</v>
+      </c>
+      <c r="E2" s="2">
+        <v>450205005</v>
+      </c>
+      <c r="G2" s="2">
+        <v>512</v>
+      </c>
+      <c r="H2" s="2">
+        <v>827511765</v>
+      </c>
+      <c r="I2" s="2">
+        <v>300440670</v>
+      </c>
+      <c r="J2" s="2">
+        <v>285131510</v>
+      </c>
+      <c r="K2" s="2">
+        <v>595673689</v>
+      </c>
+      <c r="M2" s="2">
+        <v>512</v>
+      </c>
+      <c r="N2" s="2">
+        <v>135003153</v>
+      </c>
+      <c r="O2" s="2">
+        <v>8666359</v>
+      </c>
+      <c r="P2" s="2">
+        <v>9109507</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>8543531</v>
+      </c>
+      <c r="S2" s="2">
+        <v>512</v>
+      </c>
+      <c r="T2" s="2">
+        <v>134869945</v>
+      </c>
+      <c r="U2" s="2">
+        <v>247781</v>
+      </c>
+      <c r="V2" s="2">
+        <v>8722714</v>
+      </c>
+      <c r="W2" s="2">
+        <v>8486858</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1024</v>
       </c>
-      <c r="B3">
-        <v>1560</v>
-      </c>
-      <c r="C3">
-        <v>3420</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>260</v>
-      </c>
-      <c r="G3">
-        <v>1961</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>9</v>
-      </c>
-      <c r="J3">
-        <v>1572</v>
-      </c>
-      <c r="K3">
-        <v>5577</v>
-      </c>
-      <c r="L3">
-        <v>38</v>
-      </c>
-      <c r="M3">
-        <v>28</v>
-      </c>
-      <c r="N3">
-        <v>260</v>
-      </c>
-      <c r="O3">
-        <v>2466</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-      <c r="Q3">
-        <v>10</v>
+      <c r="B3" s="2">
+        <v>7525642911</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1630296363</v>
+      </c>
+      <c r="D3" s="2">
+        <v>593699039</v>
+      </c>
+      <c r="E3" s="2">
+        <v>266822077</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1024</v>
+      </c>
+      <c r="H3" s="2">
+        <v>9052470116</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2479660695</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1110980107</v>
+      </c>
+      <c r="K3" s="2">
+        <v>979073123</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1024</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1083636666</v>
+      </c>
+      <c r="O3" s="2">
+        <v>99778901</v>
+      </c>
+      <c r="P3" s="2">
+        <v>72150691</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>69564609</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1024</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1075662802</v>
+      </c>
+      <c r="U3" s="2">
+        <v>3975057</v>
+      </c>
+      <c r="V3" s="2">
+        <v>68493551</v>
+      </c>
+      <c r="W3" s="2">
+        <v>67376128</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>1536</v>
       </c>
-      <c r="B4">
-        <v>1560</v>
-      </c>
-      <c r="C4">
-        <v>3666</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-      <c r="E4">
-        <v>19</v>
-      </c>
-      <c r="F4">
-        <v>260</v>
-      </c>
-      <c r="G4">
-        <v>963</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1572</v>
-      </c>
-      <c r="K4">
-        <v>4416</v>
-      </c>
-      <c r="L4">
-        <v>26</v>
-      </c>
-      <c r="M4">
-        <v>26</v>
-      </c>
-      <c r="N4">
-        <v>260</v>
-      </c>
-      <c r="O4">
-        <v>3535</v>
-      </c>
-      <c r="P4">
-        <v>8</v>
-      </c>
-      <c r="Q4">
-        <v>15</v>
+      <c r="B4" s="2">
+        <v>25388413065</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5480040865</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1937587494</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1077253236</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1536</v>
+      </c>
+      <c r="H4" s="2">
+        <v>48124152643</v>
+      </c>
+      <c r="I4" s="2">
+        <v>8511245480</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3892381958</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3598842174</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1536</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3647433847</v>
+      </c>
+      <c r="O4" s="2">
+        <v>337573040</v>
+      </c>
+      <c r="P4" s="2">
+        <v>233587144</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>196180169</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1536</v>
+      </c>
+      <c r="T4" s="2">
+        <v>3635232852</v>
+      </c>
+      <c r="U4" s="2">
+        <v>29013466</v>
+      </c>
+      <c r="V4" s="2">
+        <v>219651666</v>
+      </c>
+      <c r="W4" s="2">
+        <v>183303016</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>2048</v>
       </c>
-      <c r="B5">
-        <v>1560</v>
-      </c>
-      <c r="C5">
-        <v>3358</v>
-      </c>
-      <c r="D5">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>17</v>
-      </c>
-      <c r="F5">
-        <v>260</v>
-      </c>
-      <c r="G5">
-        <v>2338</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>7</v>
-      </c>
-      <c r="J5">
-        <v>1572</v>
-      </c>
-      <c r="K5">
-        <v>5673</v>
-      </c>
-      <c r="L5">
-        <v>27</v>
-      </c>
-      <c r="M5">
-        <v>21</v>
-      </c>
-      <c r="N5">
-        <v>260</v>
-      </c>
-      <c r="O5">
-        <v>2246</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>10</v>
+      <c r="B5" s="2">
+        <v>60167454370</v>
+      </c>
+      <c r="C5" s="2">
+        <v>12963463450</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4513004564</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3035769914</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2048</v>
+      </c>
+      <c r="H5" s="2">
+        <v>486806715203</v>
+      </c>
+      <c r="I5" s="2">
+        <v>19989495770</v>
+      </c>
+      <c r="J5" s="2">
+        <v>105327967941</v>
+      </c>
+      <c r="K5" s="2">
+        <v>109850629489</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2048</v>
+      </c>
+      <c r="N5" s="2">
+        <v>8691588513</v>
+      </c>
+      <c r="O5" s="2">
+        <v>799168072</v>
+      </c>
+      <c r="P5" s="2">
+        <v>614757460</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>625807404</v>
+      </c>
+      <c r="S5" s="2">
+        <v>2048</v>
+      </c>
+      <c r="T5" s="2">
+        <v>8611548215</v>
+      </c>
+      <c r="U5" s="2">
+        <v>72037797</v>
+      </c>
+      <c r="V5" s="2">
+        <v>548136598</v>
+      </c>
+      <c r="W5" s="2">
+        <v>554814135</v>
       </c>
     </row>
   </sheetData>
